--- a/recibos/bin/Debug/Archivos/reportenominafiniquito.xlsx
+++ b/recibos/bin/Debug/Archivos/reportenominafiniquito.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>ZONA GEOGRAFICA:</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>MBCGROUP</t>
+  </si>
+  <si>
+    <t>SUBSIDIO AL EMPLEO</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +593,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,17 +834,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -851,6 +849,15 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -886,7 +893,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1001,10 +1008,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1047,9 +1050,6 @@
     <xf numFmtId="43" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1108,18 +1108,41 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="21" fillId="8" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="21" fillId="8" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="21" fillId="8" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1144,6 +1167,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="8" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Comma_2 SALARIOS" xfId="4"/>
@@ -1958,7 +1985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1978,52 +2005,52 @@
   <sheetData>
     <row r="1" spans="1:92" s="54" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:92" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
       <c r="V3" s="54"/>
       <c r="W3" s="54"/>
       <c r="X3" s="54"/>
@@ -2097,54 +2124,54 @@
       <c r="CN3" s="54"/>
     </row>
     <row r="4" spans="1:92" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
     </row>
     <row r="5" spans="1:92" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="109" t="s">
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="131" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="132"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
       <c r="V5" s="54"/>
       <c r="W5" s="54"/>
       <c r="X5" s="54"/>
@@ -2218,1039 +2245,1039 @@
       <c r="CN5" s="54"/>
     </row>
     <row r="6" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="112" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="108">
         <f>+$D$8</f>
         <v>0</v>
       </c>
-      <c r="H6" s="106"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
     </row>
     <row r="7" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="109" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="114" t="s">
+      <c r="D7" s="107"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="108">
         <f>+$D$9</f>
         <v>0</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
     </row>
     <row r="8" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="109" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="115" t="s">
+      <c r="D8" s="108"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="116"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
     </row>
     <row r="9" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="109" t="s">
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
     </row>
     <row r="10" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="109" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="107" t="s">
+      <c r="D10" s="114"/>
+      <c r="E10" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
     </row>
     <row r="11" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="109" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="103"/>
+      <c r="U11" s="103"/>
     </row>
     <row r="12" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="109" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
     </row>
     <row r="13" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="109" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
     </row>
     <row r="14" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="109" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="110"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
     </row>
     <row r="15" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="109" t="s">
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
     </row>
     <row r="16" spans="1:92" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="109" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
     </row>
     <row r="17" spans="1:21" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="109" t="s">
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
     </row>
     <row r="18" spans="1:21" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="109" t="s">
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
     </row>
     <row r="19" spans="1:21" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="109" t="s">
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="103"/>
     </row>
     <row r="20" spans="1:21" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="108" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="103"/>
     </row>
     <row r="21" spans="1:21" s="54" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="108" t="s">
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
     </row>
     <row r="22" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="103"/>
+      <c r="U22" s="103"/>
     </row>
     <row r="23" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="103"/>
     </row>
     <row r="24" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="103"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="103"/>
     </row>
     <row r="25" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="103"/>
     </row>
     <row r="26" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
     </row>
     <row r="27" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
     </row>
     <row r="28" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
     </row>
     <row r="29" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
     </row>
     <row r="30" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
     </row>
     <row r="31" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="106"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
     </row>
     <row r="32" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="106"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
     </row>
     <row r="33" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="106"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
     </row>
     <row r="34" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="106"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
     </row>
     <row r="35" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="106"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
-      <c r="T35" s="106"/>
-      <c r="U35" s="106"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="103"/>
     </row>
     <row r="36" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="106"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="106"/>
-      <c r="T36" s="106"/>
-      <c r="U36" s="106"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
     </row>
     <row r="37" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="106"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="106"/>
-      <c r="S37" s="106"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="106"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="103"/>
+      <c r="T37" s="103"/>
+      <c r="U37" s="103"/>
     </row>
     <row r="38" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="106"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="106"/>
-      <c r="S38" s="106"/>
-      <c r="T38" s="106"/>
-      <c r="U38" s="106"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="103"/>
+      <c r="U38" s="103"/>
     </row>
     <row r="39" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="106"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="106"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="106"/>
-      <c r="R39" s="106"/>
-      <c r="S39" s="106"/>
-      <c r="T39" s="106"/>
-      <c r="U39" s="106"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
+      <c r="T39" s="103"/>
+      <c r="U39" s="103"/>
     </row>
     <row r="40" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="106"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="106"/>
-      <c r="S40" s="106"/>
-      <c r="T40" s="106"/>
-      <c r="U40" s="106"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="103"/>
     </row>
     <row r="41" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="106"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="106"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="106"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="106"/>
-      <c r="S41" s="106"/>
-      <c r="T41" s="106"/>
-      <c r="U41" s="106"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="103"/>
+      <c r="U41" s="103"/>
     </row>
     <row r="42" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="106"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="103"/>
+      <c r="U42" s="103"/>
     </row>
     <row r="43" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="106"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
-      <c r="S43" s="106"/>
-      <c r="T43" s="106"/>
-      <c r="U43" s="106"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="103"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="103"/>
+      <c r="T43" s="103"/>
+      <c r="U43" s="103"/>
     </row>
     <row r="44" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="106"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="106"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="106"/>
-      <c r="S44" s="106"/>
-      <c r="T44" s="106"/>
-      <c r="U44" s="106"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="103"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="103"/>
+      <c r="T44" s="103"/>
+      <c r="U44" s="103"/>
     </row>
     <row r="45" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="106"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106"/>
-      <c r="N45" s="106"/>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="106"/>
-      <c r="T45" s="106"/>
-      <c r="U45" s="106"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="103"/>
+      <c r="T45" s="103"/>
+      <c r="U45" s="103"/>
     </row>
     <row r="46" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="106"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="106"/>
-      <c r="N46" s="106"/>
-      <c r="O46" s="106"/>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="106"/>
-      <c r="R46" s="106"/>
-      <c r="S46" s="106"/>
-      <c r="T46" s="106"/>
-      <c r="U46" s="106"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="103"/>
     </row>
     <row r="47" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="106"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="106"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="106"/>
-      <c r="T47" s="106"/>
-      <c r="U47" s="106"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="103"/>
+      <c r="M47" s="103"/>
+      <c r="N47" s="103"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="103"/>
+      <c r="T47" s="103"/>
+      <c r="U47" s="103"/>
     </row>
     <row r="48" spans="1:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="106"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="106"/>
-      <c r="S48" s="106"/>
-      <c r="T48" s="106"/>
-      <c r="U48" s="106"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="103"/>
+      <c r="N48" s="103"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="103"/>
+      <c r="T48" s="103"/>
+      <c r="U48" s="103"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
@@ -3836,7 +3863,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C1" s="127">
+      <c r="C1" s="124">
         <f>DATOS!D5</f>
         <v>0</v>
       </c>
@@ -3847,13 +3874,13 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="145"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
@@ -3903,13 +3930,13 @@
       <c r="H9" s="65"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="145"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
@@ -4071,13 +4098,13 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="135"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="145"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
@@ -4100,13 +4127,13 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="136" t="s">
+      <c r="B32" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="138"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="148"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
@@ -4195,8 +4222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4222,11 +4249,11 @@
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
     </row>
     <row r="4" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -4251,7 +4278,8 @@
         <v>32</v>
       </c>
       <c r="D6" s="42">
-        <v>20</v>
+        <f>+DATOS!D19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4356,11 +4384,11 @@
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="135"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="145"/>
     </row>
     <row r="20" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
@@ -4445,11 +4473,11 @@
     </row>
     <row r="30" spans="1:4" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
     </row>
     <row r="32" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
@@ -4494,11 +4522,11 @@
       <c r="D36" s="3"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="135"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
     </row>
     <row r="39" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
@@ -4574,7 +4602,7 @@
         <f>DATOS!D13</f>
         <v>0</v>
       </c>
-      <c r="F45" s="97"/>
+      <c r="F45" s="94"/>
     </row>
     <row r="46" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
@@ -4587,7 +4615,7 @@
         <f>+D44*D45</f>
         <v>0</v>
       </c>
-      <c r="F46" s="97"/>
+      <c r="F46" s="94"/>
     </row>
     <row r="47" spans="2:6" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
@@ -4595,11 +4623,11 @@
       <c r="D47" s="3"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="133" t="s">
+      <c r="B49" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="134"/>
-      <c r="D49" s="135"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
     </row>
     <row r="50" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
@@ -4698,11 +4726,11 @@
       <c r="D59"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="133" t="s">
+      <c r="B60" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="134"/>
-      <c r="D60" s="135"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
     </row>
     <row r="61" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
@@ -4767,10 +4795,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4824,10 +4852,14 @@
     <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
       <c r="C6" s="73"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="128"/>
     </row>
     <row r="7" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="77"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="35"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="56" t="s">
@@ -4836,12 +4868,14 @@
       <c r="C8" s="58">
         <v>0</v>
       </c>
-      <c r="E8" s="95"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="131"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
       <c r="C9" s="58"/>
-      <c r="E9" s="70"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="70"/>
       <c r="G9" s="70"/>
       <c r="H9" s="70"/>
@@ -4854,6 +4888,7 @@
         <v>73</v>
       </c>
       <c r="C10" s="58"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="58"/>
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
@@ -4865,6 +4900,7 @@
     <row r="11" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="56"/>
       <c r="C11" s="58"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="58"/>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
@@ -4880,6 +4916,7 @@
       <c r="C12" s="58">
         <v>0</v>
       </c>
+      <c r="D12" s="129"/>
       <c r="E12" s="58">
         <v>0</v>
       </c>
@@ -4891,9 +4928,10 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="35"/>
-      <c r="E13" s="70"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="70"/>
       <c r="G13" s="70"/>
       <c r="H13" s="70"/>
@@ -4902,9 +4940,10 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="78"/>
-      <c r="C14" s="74"/>
-      <c r="E14" s="70"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="70"/>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
@@ -4913,9 +4952,10 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="35"/>
-      <c r="E15" s="70"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
@@ -4927,7 +4967,8 @@
       <c r="B16" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="103"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="57">
         <f>PAGOS!D46</f>
         <v>0</v>
@@ -4938,12 +4979,13 @@
       <c r="I16" s="70"/>
       <c r="J16" s="70"/>
       <c r="K16" s="6"/>
-      <c r="R16" s="100"/>
-      <c r="T16" s="100"/>
+      <c r="R16" s="97"/>
+      <c r="T16" s="97"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="56"/>
-      <c r="C17" s="103"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="57"/>
       <c r="F17" s="70"/>
       <c r="G17" s="70"/>
@@ -4951,14 +4993,15 @@
       <c r="I17" s="70"/>
       <c r="J17" s="70"/>
       <c r="K17" s="6"/>
-      <c r="S17" s="105"/>
-      <c r="U17" s="105"/>
+      <c r="S17" s="102"/>
+      <c r="U17" s="102"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="57">
         <f>PAGOS!D57</f>
         <v>0</v>
@@ -4969,12 +5012,13 @@
       <c r="I18" s="70"/>
       <c r="J18" s="70"/>
       <c r="K18" s="6"/>
-      <c r="S18" s="105"/>
-      <c r="U18" s="105"/>
+      <c r="S18" s="102"/>
+      <c r="U18" s="102"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="56"/>
-      <c r="C19" s="103"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="57"/>
       <c r="F19" s="70"/>
       <c r="G19" s="70"/>
@@ -4982,15 +5026,16 @@
       <c r="I19" s="70"/>
       <c r="J19" s="70"/>
       <c r="K19" s="6"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="100"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="97"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="103"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="57">
         <f>PAGOS!D64</f>
         <v>0</v>
@@ -5001,13 +5046,14 @@
       <c r="I20" s="70"/>
       <c r="J20" s="70"/>
       <c r="K20" s="6"/>
-      <c r="R20" s="100"/>
-      <c r="T20" s="100"/>
+      <c r="R20" s="97"/>
+      <c r="T20" s="97"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="56"/>
-      <c r="C21" s="103"/>
-      <c r="E21" s="70"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="70"/>
       <c r="G21" s="70"/>
       <c r="H21" s="70"/>
@@ -5030,7 +5076,7 @@
         <v>111</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="62"/>
+      <c r="D22" s="132"/>
       <c r="E22" s="57">
         <v>0</v>
       </c>
@@ -5040,25 +5086,25 @@
       <c r="I22" s="70"/>
       <c r="J22" s="70"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="98"/>
+      <c r="L22" s="95"/>
       <c r="M22" s="64"/>
-      <c r="O22" s="100"/>
+      <c r="O22" s="97"/>
       <c r="Q22" s="64"/>
       <c r="R22" s="64"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="56"/>
       <c r="C23" s="57"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="70"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="70"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="102"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="70"/>
       <c r="J23" s="70"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="100"/>
-      <c r="O23" s="100"/>
+      <c r="L23" s="97"/>
+      <c r="O23" s="97"/>
       <c r="Q23" s="64"/>
     </row>
     <row r="24" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5068,7 +5114,8 @@
       <c r="C24" s="57">
         <v>0</v>
       </c>
-      <c r="E24" s="70"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="70"/>
       <c r="G24" s="70"/>
       <c r="H24" s="70"/>
@@ -5079,35 +5126,28 @@
       <c r="O24" s="64"/>
       <c r="R24" s="64"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="75">
-        <f>SUM(C10:C24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="70">
-        <f>SUM(E8:E24)</f>
-        <v>0</v>
-      </c>
+    <row r="25" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="70"/>
       <c r="G25" s="70"/>
       <c r="H25" s="70"/>
       <c r="I25" s="70"/>
       <c r="J25" s="70"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="98"/>
       <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
       <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-    </row>
-    <row r="26" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="70"/>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="70"/>
       <c r="G26" s="70"/>
       <c r="H26" s="70"/>
@@ -5115,15 +5155,14 @@
       <c r="J26" s="70"/>
       <c r="K26" s="6"/>
       <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="Q26" s="64"/>
+      <c r="O26" s="64"/>
       <c r="R26" s="64"/>
     </row>
-    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="70"/>
+    <row r="27" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="70"/>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
@@ -5131,164 +5170,222 @@
       <c r="J27" s="70"/>
       <c r="K27" s="6"/>
       <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-    </row>
-    <row r="28" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="38"/>
-      <c r="C28" s="37"/>
-      <c r="E28" s="90">
-        <v>0</v>
-      </c>
-      <c r="F28" s="90" t="s">
-        <v>105</v>
-      </c>
+      <c r="O27" s="64"/>
+      <c r="R27" s="64"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="151">
+        <f>SUM(C10:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="137"/>
+      <c r="E28" s="152">
+        <f>SUM(E8:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="70"/>
       <c r="G28" s="70"/>
       <c r="H28" s="70"/>
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
       <c r="K28" s="6"/>
+      <c r="L28" s="95"/>
       <c r="M28" s="64"/>
-      <c r="O28" s="64"/>
-    </row>
-    <row r="29" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="71"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="N28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+    </row>
+    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="36"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
       <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="63" t="s">
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+    </row>
+    <row r="30" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="36"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="6"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+    </row>
+    <row r="31" spans="1:21" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="38"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="135">
+        <v>0</v>
+      </c>
+      <c r="F31" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="6"/>
+      <c r="M31" s="64"/>
+      <c r="O31" s="64"/>
+    </row>
+    <row r="32" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="71"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="93">
-        <f>C25*0%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="63" t="s">
+      <c r="C33" s="91">
+        <f>C28*DATOS!D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="79">
-        <v>0</v>
-      </c>
-      <c r="F31" s="62"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="63" t="s">
+      <c r="C34" s="77">
+        <v>0</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="64"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="63" t="s">
+      <c r="C35" s="90"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="64"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="62">
-        <f>+C25+C30+C31+C32</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="L33" s="64"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="63" t="s">
+      <c r="C36" s="62">
+        <f>+C28+C33+C34+C35</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="L36" s="64"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="62">
-        <f>+C33*16%</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="104"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="63" t="s">
+      <c r="C37" s="62">
+        <f>+C36*16%</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="101"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="99">
-        <f>+C33+C34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="62"/>
-      <c r="F36" s="64"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="63" t="s">
+      <c r="C38" s="96">
+        <f>+C36+C37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C39" s="62"/>
+      <c r="F39" s="64"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="62">
-        <f>E25-C25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="91" t="s">
+      <c r="C40" s="62">
+        <f>E28-C28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="92">
-        <v>0</v>
-      </c>
-      <c r="E38" s="89"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="63" t="s">
+      <c r="C41" s="126">
+        <f>+C40-C24</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="87"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="93">
-        <f>C37*DATOS!D21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="63" t="s">
+      <c r="C42" s="91">
+        <f>C40*DATOS!D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="62">
-        <f>C37+C39</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="104"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="63" t="s">
+      <c r="C43" s="62">
+        <f>C40+C42</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="101"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="62">
-        <f>+C40*16%</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="63" t="s">
+      <c r="C44" s="62">
+        <f>+C43*16%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="99">
-        <f>C40+C41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="66" t="s">
+      <c r="C45" s="96">
+        <f>C43+C44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="67">
-        <f>C35+C42</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="64"/>
-    </row>
-    <row r="45" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C48" s="64"/>
+      <c r="C47" s="67">
+        <f>C38+C45</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="64"/>
+    </row>
+    <row r="48" spans="2:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5304,7 +5401,7 @@
   <dimension ref="A7:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5316,72 +5413,72 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="128" t="s">
+      <c r="D9" s="149"/>
+      <c r="E9" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="79" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="84">
+      <c r="A11" s="82">
         <f>DATOS!D9</f>
         <v>0</v>
       </c>
-      <c r="B11" s="94">
+      <c r="B11" s="92">
         <f>DATOS!D5</f>
         <v>0</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="83">
         <f>'RESUMEN RET'!C22</f>
         <v>0</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="83">
         <f>'RESUMEN RET'!C16+'RESUMEN RET'!C18+'RESUMEN RET'!C20</f>
         <v>0</v>
       </c>
-      <c r="E11" s="85">
-        <f>'RESUMEN RET'!C37</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="86">
+      <c r="E11" s="83">
+        <f>'RESUMEN RET'!C40</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="84">
         <f>C11+D11+E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="80"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/recibos/bin/Debug/Archivos/reportenominafiniquito.xlsx
+++ b/recibos/bin/Debug/Archivos/reportenominafiniquito.xlsx
@@ -1131,6 +1131,10 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="8" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1167,10 +1171,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Comma_2 SALARIOS" xfId="4"/>
@@ -2030,10 +2030,10 @@
     <row r="3" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="140"/>
+      <c r="D3" s="142"/>
       <c r="E3" s="104"/>
       <c r="F3" s="103"/>
       <c r="G3" s="103"/>
@@ -2154,10 +2154,10 @@
       </c>
       <c r="D5" s="107"/>
       <c r="E5" s="104"/>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="142"/>
+      <c r="G5" s="144"/>
       <c r="H5" s="103"/>
       <c r="I5" s="110"/>
       <c r="J5" s="110"/>
@@ -3847,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3874,13 +3874,13 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="147"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
@@ -3930,13 +3930,13 @@
       <c r="H9" s="65"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
@@ -4098,13 +4098,13 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="143" t="s">
+      <c r="B27" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="147"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
@@ -4127,13 +4127,13 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="146" t="s">
+      <c r="B32" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="148"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="150"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
@@ -4143,7 +4143,8 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="7">
-        <v>64.760000000000005</v>
+        <f>+F29</f>
+        <v>88.36</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -4170,7 +4171,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="27">
         <f>F33*F34</f>
-        <v>129.52000000000001</v>
+        <v>176.72</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -4222,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4249,11 +4250,11 @@
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
     </row>
     <row r="4" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -4384,11 +4385,11 @@
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
     </row>
     <row r="20" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
@@ -4473,11 +4474,11 @@
     </row>
     <row r="30" spans="1:4" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="143" t="s">
+      <c r="B31" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="144"/>
-      <c r="D31" s="145"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="147"/>
     </row>
     <row r="32" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
@@ -4522,11 +4523,11 @@
       <c r="D36" s="3"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="145"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="147"/>
     </row>
     <row r="39" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
@@ -4623,11 +4624,11 @@
       <c r="D47" s="3"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="143" t="s">
+      <c r="B49" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="144"/>
-      <c r="D49" s="145"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="147"/>
     </row>
     <row r="50" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
@@ -4726,11 +4727,11 @@
       <c r="D59"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="143" t="s">
+      <c r="B60" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="144"/>
-      <c r="D60" s="145"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="147"/>
     </row>
     <row r="61" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
@@ -4798,7 +4799,7 @@
   <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4970,7 +4971,7 @@
       <c r="C16" s="100"/>
       <c r="D16" s="129"/>
       <c r="E16" s="57">
-        <f>PAGOS!D46</f>
+        <f>+PAGOS!D46</f>
         <v>0</v>
       </c>
       <c r="F16" s="70"/>
@@ -5003,7 +5004,7 @@
       <c r="C18" s="100"/>
       <c r="D18" s="129"/>
       <c r="E18" s="57">
-        <f>PAGOS!D57</f>
+        <f>+PAGOS!D57</f>
         <v>0</v>
       </c>
       <c r="F18" s="70"/>
@@ -5078,6 +5079,7 @@
       <c r="C22" s="57"/>
       <c r="D22" s="132"/>
       <c r="E22" s="57">
+        <f>+PAGOS!D35</f>
         <v>0</v>
       </c>
       <c r="F22" s="70"/>
@@ -5177,12 +5179,12 @@
       <c r="B28" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="151">
+      <c r="C28" s="139">
         <f>SUM(C10:C24)</f>
         <v>0</v>
       </c>
       <c r="D28" s="137"/>
-      <c r="E28" s="152">
+      <c r="E28" s="140">
         <f>SUM(E8:E24)</f>
         <v>0</v>
       </c>
@@ -5413,18 +5415,18 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="149"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="125" t="s">
         <v>102</v>
       </c>
